--- a/images/graphs.xlsx
+++ b/images/graphs.xlsx
@@ -202,7 +202,7 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:rPr lang="en-US"/>
+              <a:rPr lang="en-US" sz="3600"/>
               <a:t>Reading Tiles of Different Bitrates</a:t>
             </a:r>
           </a:p>
@@ -817,7 +817,7 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
                       <a:schemeClr val="tx1">
                         <a:lumMod val="65000"/>
@@ -830,7 +830,7 @@
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="en-US"/>
+                  <a:rPr lang="en-US" sz="2400"/>
                   <a:t>Bitrates of Files Read</a:t>
                 </a:r>
               </a:p>
@@ -850,7 +850,7 @@
             <a:lstStyle/>
             <a:p>
               <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                   <a:solidFill>
                     <a:schemeClr val="tx1">
                       <a:lumMod val="65000"/>
@@ -934,7 +934,7 @@
         <c:title>
           <c:tx>
             <c:rich>
-              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="b" anchorCtr="1"/>
               <a:lstStyle/>
               <a:p>
                 <a:pPr marL="0" marR="0" indent="0" algn="ctr" defTabSz="914400" rtl="0" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
@@ -952,7 +952,7 @@
                   <a:buFontTx/>
                   <a:buNone/>
                   <a:tabLst/>
-                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
                       <a:sysClr val="windowText" lastClr="000000">
                         <a:lumMod val="65000"/>
@@ -965,7 +965,7 @@
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="en-US" sz="1000" b="0" i="0" kern="1200" baseline="0">
+                  <a:rPr lang="en-US" sz="2400" b="0" i="0" kern="1200" baseline="0">
                     <a:solidFill>
                       <a:srgbClr val="595959"/>
                     </a:solidFill>
@@ -973,13 +973,20 @@
                   </a:rPr>
                   <a:t>Time (seconds)</a:t>
                 </a:r>
-                <a:endParaRPr lang="en-US">
+                <a:endParaRPr lang="en-US" sz="2400">
                   <a:effectLst/>
                 </a:endParaRPr>
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="0.00734094616639478"/>
+              <c:y val="0.35245238017447"/>
+            </c:manualLayout>
+          </c:layout>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -989,7 +996,7 @@
             <a:effectLst/>
           </c:spPr>
           <c:txPr>
-            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="b" anchorCtr="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr marL="0" marR="0" indent="0" algn="ctr" defTabSz="914400" rtl="0" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
@@ -1007,7 +1014,7 @@
                 <a:buFontTx/>
                 <a:buNone/>
                 <a:tabLst/>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                   <a:solidFill>
                     <a:sysClr val="windowText" lastClr="000000">
                       <a:lumMod val="65000"/>
@@ -1039,7 +1046,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="2400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -1082,7 +1089,7 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+            <a:defRPr sz="2400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="tx1">
                   <a:lumMod val="65000"/>
@@ -1169,7 +1176,7 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:rPr lang="en-US"/>
+              <a:rPr lang="en-US" sz="3600"/>
               <a:t>Reading Tiles of Different Bitrates</a:t>
             </a:r>
           </a:p>
@@ -1611,11 +1618,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="-1796754464"/>
-        <c:axId val="-1796698736"/>
+        <c:axId val="-1803268944"/>
+        <c:axId val="-1746327680"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-1796754464"/>
+        <c:axId val="-1803268944"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1628,7 +1635,7 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
                       <a:schemeClr val="tx1">
                         <a:lumMod val="65000"/>
@@ -1641,13 +1648,20 @@
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="en-US"/>
+                  <a:rPr lang="en-US" sz="2400"/>
                   <a:t>Bitrates of Files Read</a:t>
                 </a:r>
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="0.368720889905075"/>
+              <c:y val="0.914325644460418"/>
+            </c:manualLayout>
+          </c:layout>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -1661,7 +1675,7 @@
             <a:lstStyle/>
             <a:p>
               <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                   <a:solidFill>
                     <a:schemeClr val="tx1">
                       <a:lumMod val="65000"/>
@@ -1714,7 +1728,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1796698736"/>
+        <c:crossAx val="-1746327680"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1722,11 +1736,9 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-1796698736"/>
+        <c:axId val="-1746327680"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:max val="1.75"/>
-          <c:min val="0.0"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -1747,7 +1759,7 @@
         <c:title>
           <c:tx>
             <c:rich>
-              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="b" anchorCtr="1"/>
               <a:lstStyle/>
               <a:p>
                 <a:pPr marL="0" marR="0" indent="0" algn="ctr" defTabSz="914400" rtl="0" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
@@ -1765,7 +1777,7 @@
                   <a:buFontTx/>
                   <a:buNone/>
                   <a:tabLst/>
-                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
                       <a:sysClr val="windowText" lastClr="000000">
                         <a:lumMod val="65000"/>
@@ -1778,7 +1790,7 @@
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="en-US" sz="1000" b="0" i="0" kern="1200" baseline="0">
+                  <a:rPr lang="en-US" sz="2400" b="0" i="0" kern="1200" baseline="0">
                     <a:solidFill>
                       <a:srgbClr val="595959"/>
                     </a:solidFill>
@@ -1786,13 +1798,20 @@
                   </a:rPr>
                   <a:t>Time (seconds)</a:t>
                 </a:r>
-                <a:endParaRPr lang="en-US">
+                <a:endParaRPr lang="en-US" sz="2400">
                   <a:effectLst/>
                 </a:endParaRPr>
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="0.00734094616639478"/>
+              <c:y val="0.35452706897115"/>
+            </c:manualLayout>
+          </c:layout>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -1802,7 +1821,7 @@
             <a:effectLst/>
           </c:spPr>
           <c:txPr>
-            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="b" anchorCtr="1"/>
             <a:lstStyle/>
             <a:p>
               <a:pPr marL="0" marR="0" indent="0" algn="ctr" defTabSz="914400" rtl="0" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
@@ -1820,7 +1839,7 @@
                 <a:buFontTx/>
                 <a:buNone/>
                 <a:tabLst/>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                   <a:solidFill>
                     <a:sysClr val="windowText" lastClr="000000">
                       <a:lumMod val="65000"/>
@@ -1852,7 +1871,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="2400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -1867,7 +1886,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1796754464"/>
+        <c:crossAx val="-1803268944"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1895,7 +1914,7 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+            <a:defRPr sz="2400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="tx1">
                   <a:lumMod val="65000"/>
@@ -1969,7 +1988,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:defRPr sz="3600" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -1982,12 +2001,12 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:rPr lang="en-US" sz="1800" b="0" i="0" baseline="0">
+              <a:rPr lang="en-US" sz="3600" b="0" i="0" baseline="0">
                 <a:effectLst/>
               </a:rPr>
               <a:t>Writing Tiles of Different Bitrates</a:t>
             </a:r>
-            <a:endParaRPr lang="en-US">
+            <a:endParaRPr lang="en-US" sz="3600">
               <a:effectLst/>
             </a:endParaRPr>
           </a:p>
@@ -2007,7 +2026,7 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+            <a:defRPr sz="3600" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="tx1">
                   <a:lumMod val="65000"/>
@@ -2267,13 +2286,20 @@
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="en-US"/>
+                  <a:rPr lang="en-US" sz="2400"/>
                   <a:t>Number and Bitrates of Files Read</a:t>
                 </a:r>
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="0.329216261355469"/>
+              <c:y val="0.916344794531476"/>
+            </c:manualLayout>
+          </c:layout>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -2391,7 +2417,7 @@
                   <a:buFontTx/>
                   <a:buNone/>
                   <a:tabLst/>
-                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr sz="2400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
                       <a:sysClr val="windowText" lastClr="000000">
                         <a:lumMod val="65000"/>
@@ -2404,7 +2430,7 @@
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="en-US" sz="1000" b="0" i="0" kern="1200" baseline="0">
+                  <a:rPr lang="en-US" sz="2400" b="0" i="0" kern="1200" baseline="0">
                     <a:solidFill>
                       <a:srgbClr val="595959"/>
                     </a:solidFill>
@@ -2412,13 +2438,20 @@
                   </a:rPr>
                   <a:t>Time (seconds)</a:t>
                 </a:r>
-                <a:endParaRPr lang="en-US">
+                <a:endParaRPr lang="en-US" sz="2400">
                   <a:effectLst/>
                 </a:endParaRPr>
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="0.00570887975468128"/>
+              <c:y val="0.352354521641446"/>
+            </c:manualLayout>
+          </c:layout>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -2446,7 +2479,7 @@
                 <a:buFontTx/>
                 <a:buNone/>
                 <a:tabLst/>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:defRPr sz="2400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                   <a:solidFill>
                     <a:sysClr val="windowText" lastClr="000000">
                       <a:lumMod val="65000"/>
@@ -2477,7 +2510,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="2400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -2520,7 +2553,7 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+            <a:defRPr sz="2400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="tx1">
                   <a:lumMod val="65000"/>
@@ -2594,7 +2627,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:defRPr sz="3600" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -2607,12 +2640,12 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:rPr lang="en-US" sz="1800" b="0" i="0" baseline="0">
+              <a:rPr lang="en-US" sz="3600" b="0" i="0" baseline="0">
                 <a:effectLst/>
               </a:rPr>
               <a:t>Writing Tiles of Different Bitrates</a:t>
             </a:r>
-            <a:endParaRPr lang="en-US">
+            <a:endParaRPr lang="en-US" sz="3600">
               <a:effectLst/>
             </a:endParaRPr>
           </a:p>
@@ -2632,7 +2665,7 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+            <a:defRPr sz="3600" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="tx1">
                   <a:lumMod val="65000"/>
@@ -2657,7 +2690,7 @@
         <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="1"/>
-          <c:order val="1"/>
+          <c:order val="0"/>
           <c:tx>
             <c:strRef>
               <c:f>'Writing Files'!$C$1</c:f>
@@ -2723,7 +2756,7 @@
         </c:ser>
         <c:ser>
           <c:idx val="3"/>
-          <c:order val="2"/>
+          <c:order val="1"/>
           <c:tx>
             <c:strRef>
               <c:f>'Writing Files'!$D$1</c:f>
@@ -2796,86 +2829,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="-1795530672"/>
-        <c:axId val="-1751031920"/>
-        <c:extLst>
-          <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-            <c15:filteredBarSeries>
-              <c15:ser>
-                <c:idx val="0"/>
-                <c:order val="0"/>
-                <c:tx>
-                  <c:strRef>
-                    <c:extLst>
-                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                        <c15:formulaRef>
-                          <c15:sqref>'Writing Files'!$B$1</c15:sqref>
-                        </c15:formulaRef>
-                      </c:ext>
-                    </c:extLst>
-                    <c:strCache>
-                      <c:ptCount val="1"/>
-                    </c:strCache>
-                  </c:strRef>
-                </c:tx>
-                <c:spPr>
-                  <a:solidFill>
-                    <a:schemeClr val="accent1"/>
-                  </a:solidFill>
-                  <a:ln>
-                    <a:noFill/>
-                  </a:ln>
-                  <a:effectLst/>
-                </c:spPr>
-                <c:invertIfNegative val="0"/>
-                <c:cat>
-                  <c:strRef>
-                    <c:extLst>
-                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                        <c15:formulaRef>
-                          <c15:sqref>'Writing Files'!$A$2:$A$5</c15:sqref>
-                        </c15:formulaRef>
-                      </c:ext>
-                    </c:extLst>
-                    <c:strCache>
-                      <c:ptCount val="4"/>
-                      <c:pt idx="0">
-                        <c:v>1 @ 50kbps</c:v>
-                      </c:pt>
-                      <c:pt idx="1">
-                        <c:v>18 @ 50kbps</c:v>
-                      </c:pt>
-                      <c:pt idx="2">
-                        <c:v>1 @ 9000 kbps</c:v>
-                      </c:pt>
-                      <c:pt idx="3">
-                        <c:v>18 @ 9000 kbps</c:v>
-                      </c:pt>
-                    </c:strCache>
-                  </c:strRef>
-                </c:cat>
-                <c:val>
-                  <c:numRef>
-                    <c:extLst>
-                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                        <c15:formulaRef>
-                          <c15:sqref>'Writing Files'!$B$2:$B$5</c15:sqref>
-                        </c15:formulaRef>
-                      </c:ext>
-                    </c:extLst>
-                    <c:numCache>
-                      <c:formatCode>General</c:formatCode>
-                      <c:ptCount val="4"/>
-                    </c:numCache>
-                  </c:numRef>
-                </c:val>
-              </c15:ser>
-            </c15:filteredBarSeries>
-          </c:ext>
-        </c:extLst>
+        <c:axId val="-1749233936"/>
+        <c:axId val="-1746123856"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-1795530672"/>
+        <c:axId val="-1749233936"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2901,13 +2859,20 @@
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="en-US"/>
+                  <a:rPr lang="en-US" sz="2400"/>
                   <a:t>Number and Bitrates of Files Read</a:t>
                 </a:r>
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="0.329216261355469"/>
+              <c:y val="0.916344794531476"/>
+            </c:manualLayout>
+          </c:layout>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -2974,7 +2939,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1751031920"/>
+        <c:crossAx val="-1746123856"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2982,7 +2947,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-1751031920"/>
+        <c:axId val="-1746123856"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="0.25"/>
@@ -3010,13 +2975,27 @@
               <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
               <a:lstStyle/>
               <a:p>
-                <a:pPr>
-                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:pPr marL="0" marR="0" indent="0" algn="ctr" defTabSz="914400" rtl="0" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+                  <a:lnSpc>
+                    <a:spcPct val="100000"/>
+                  </a:lnSpc>
+                  <a:spcBef>
+                    <a:spcPts val="0"/>
+                  </a:spcBef>
+                  <a:spcAft>
+                    <a:spcPts val="0"/>
+                  </a:spcAft>
+                  <a:buClrTx/>
+                  <a:buSzTx/>
+                  <a:buFontTx/>
+                  <a:buNone/>
+                  <a:tabLst/>
+                  <a:defRPr sz="2400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
-                      <a:schemeClr val="tx1">
+                      <a:sysClr val="windowText" lastClr="000000">
                         <a:lumMod val="65000"/>
                         <a:lumOff val="35000"/>
-                      </a:schemeClr>
+                      </a:sysClr>
                     </a:solidFill>
                     <a:latin typeface="+mn-lt"/>
                     <a:ea typeface="+mn-ea"/>
@@ -3024,13 +3003,28 @@
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="en-US"/>
+                  <a:rPr lang="en-US" sz="2400" b="0" i="0" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:srgbClr val="595959"/>
+                    </a:solidFill>
+                    <a:effectLst/>
+                  </a:rPr>
                   <a:t>Time (seconds)</a:t>
                 </a:r>
+                <a:endParaRPr lang="en-US" sz="2400">
+                  <a:effectLst/>
+                </a:endParaRPr>
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="0.00570887975468128"/>
+              <c:y val="0.352354521641446"/>
+            </c:manualLayout>
+          </c:layout>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -3043,13 +3037,27 @@
             <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
             <a:lstStyle/>
             <a:p>
-              <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:pPr marL="0" marR="0" indent="0" algn="ctr" defTabSz="914400" rtl="0" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+                <a:lnSpc>
+                  <a:spcPct val="100000"/>
+                </a:lnSpc>
+                <a:spcBef>
+                  <a:spcPts val="0"/>
+                </a:spcBef>
+                <a:spcAft>
+                  <a:spcPts val="0"/>
+                </a:spcAft>
+                <a:buClrTx/>
+                <a:buSzTx/>
+                <a:buFontTx/>
+                <a:buNone/>
+                <a:tabLst/>
+                <a:defRPr sz="2400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                   <a:solidFill>
-                    <a:schemeClr val="tx1">
+                    <a:sysClr val="windowText" lastClr="000000">
                       <a:lumMod val="65000"/>
                       <a:lumOff val="35000"/>
-                    </a:schemeClr>
+                    </a:sysClr>
                   </a:solidFill>
                   <a:latin typeface="+mn-lt"/>
                   <a:ea typeface="+mn-ea"/>
@@ -3060,6 +3068,7 @@
             </a:p>
           </c:txPr>
         </c:title>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -3075,7 +3084,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="2400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -3090,7 +3099,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1795530672"/>
+        <c:crossAx val="-1749233936"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3118,7 +3127,7 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+            <a:defRPr sz="2400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="tx1">
                   <a:lumMod val="65000"/>
@@ -3205,7 +3214,7 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:rPr lang="en-US"/>
+              <a:rPr lang="en-US" sz="3600"/>
               <a:t>Throughput of 9mbps Tiles</a:t>
             </a:r>
           </a:p>
@@ -3366,7 +3375,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="2400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -3416,7 +3425,7 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr sz="2400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
                       <a:schemeClr val="tx1">
                         <a:lumMod val="65000"/>
@@ -3429,18 +3438,25 @@
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="en-US"/>
+                  <a:rPr lang="en-US" sz="2400"/>
                   <a:t>Throughput</a:t>
                 </a:r>
                 <a:r>
-                  <a:rPr lang="en-US" baseline="0"/>
+                  <a:rPr lang="en-US" sz="2400" baseline="0"/>
                   <a:t> (tiles/second)</a:t>
                 </a:r>
-                <a:endParaRPr lang="en-US"/>
+                <a:endParaRPr lang="en-US" sz="2400"/>
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="0.00652443400535003"/>
+              <c:y val="0.252962727566379"/>
+            </c:manualLayout>
+          </c:layout>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -3454,7 +3470,7 @@
             <a:lstStyle/>
             <a:p>
               <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:defRPr sz="2400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                   <a:solidFill>
                     <a:schemeClr val="tx1">
                       <a:lumMod val="65000"/>
@@ -3485,7 +3501,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="2400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -6269,15 +6285,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>495300</xdr:colOff>
+      <xdr:colOff>165100</xdr:colOff>
       <xdr:row>9</xdr:row>
       <xdr:rowOff>139700</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>611688</xdr:colOff>
-      <xdr:row>32</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>431800</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>165100</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -6300,20 +6316,20 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>736600</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>50800</xdr:rowOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>475996</xdr:colOff>
-      <xdr:row>33</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>711200</xdr:colOff>
+      <xdr:row>79</xdr:row>
+      <xdr:rowOff>25400</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="3" name="Chart 2"/>
+        <xdr:cNvPr id="4" name="Chart 3"/>
         <xdr:cNvGraphicFramePr>
           <a:graphicFrameLocks noChangeAspect="1"/>
         </xdr:cNvGraphicFramePr>
@@ -6338,21 +6354,21 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>304800</xdr:colOff>
+      <xdr:colOff>304799</xdr:colOff>
       <xdr:row>8</xdr:row>
       <xdr:rowOff>190500</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>44196</xdr:colOff>
-      <xdr:row>31</xdr:row>
-      <xdr:rowOff>88900</xdr:rowOff>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>192531</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>8636</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Chart 1"/>
         <xdr:cNvGraphicFramePr>
-          <a:graphicFrameLocks noChangeAspect="1"/>
+          <a:graphicFrameLocks/>
         </xdr:cNvGraphicFramePr>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -6369,22 +6385,22 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>482600</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>50800</xdr:rowOff>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>53</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>221996</xdr:colOff>
-      <xdr:row>29</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>713232</xdr:colOff>
+      <xdr:row>83</xdr:row>
+      <xdr:rowOff>21336</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="3" name="Chart 2"/>
+        <xdr:cNvPr id="5" name="Chart 4"/>
         <xdr:cNvGraphicFramePr>
-          <a:graphicFrameLocks noChangeAspect="1"/>
+          <a:graphicFrameLocks/>
         </xdr:cNvGraphicFramePr>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -6406,16 +6422,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>628650</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>12700</xdr:rowOff>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>273050</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>25400</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>368046</xdr:colOff>
-      <xdr:row>31</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>160782</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>46736</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -6704,8 +6720,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView tabSelected="1" topLeftCell="A65" workbookViewId="0">
+      <selection activeCell="D76" sqref="D76"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -6903,8 +6919,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J27" sqref="J27"/>
+    <sheetView topLeftCell="B4" workbookViewId="0">
+      <selection activeCell="C54" sqref="C54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -6992,7 +7008,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D6"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" workbookViewId="0">
+    <sheetView topLeftCell="A12" workbookViewId="0">
       <selection activeCell="B5" sqref="B5:D6"/>
     </sheetView>
   </sheetViews>

--- a/images/graphs.xlsx
+++ b/images/graphs.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="22">
   <si>
     <t>TileDB</t>
   </si>
@@ -55,53 +55,61 @@
     <t>FS</t>
   </si>
   <si>
-    <t>SciDB_Fake</t>
-  </si>
-  <si>
-    <t>TileDB_Fake</t>
-  </si>
-  <si>
-    <t>1 @ 50kbps</t>
-  </si>
-  <si>
-    <t>18 @ 50kbps</t>
-  </si>
-  <si>
-    <t>1 @ 9000 kbps</t>
-  </si>
-  <si>
-    <t>18 @ 9000 kbps</t>
-  </si>
-  <si>
-    <t>18@50, 0@9000</t>
-  </si>
-  <si>
-    <t>17@50, 1@9000</t>
-  </si>
-  <si>
-    <t>16@50, 2@9000</t>
-  </si>
-  <si>
-    <t>14@50, 4@9000</t>
-  </si>
-  <si>
-    <t>6@50, 12@9000</t>
-  </si>
-  <si>
-    <t>0@50, 18@9000</t>
-  </si>
-  <si>
     <t>Throughput Tests</t>
   </si>
   <si>
     <t>1040 @ 9000 kbps</t>
+  </si>
+  <si>
+    <t>1 low</t>
+  </si>
+  <si>
+    <t>18 low</t>
+  </si>
+  <si>
+    <t>1 high</t>
+  </si>
+  <si>
+    <t>18 high</t>
+  </si>
+  <si>
+    <t>17 low,
+1 high</t>
+  </si>
+  <si>
+    <t>16 low,
+2 high</t>
+  </si>
+  <si>
+    <t>14 low, 
+4 high</t>
+  </si>
+  <si>
+    <t>6 low,
+12 high</t>
+  </si>
+  <si>
+    <t>FS
+Separate</t>
+  </si>
+  <si>
+    <t>TileDB
+Overflow</t>
+  </si>
+  <si>
+    <t>FS
+Combined</t>
+  </si>
+  <si>
+    <t>FS
+Padded</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -120,6 +128,13 @@
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="13"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -142,10 +157,25 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -154,10 +184,10 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium7"/>
   <colors>
     <mruColors>
+      <color rgb="FF9437FF"/>
+      <color rgb="FFED8D2E"/>
       <color rgb="FF003CB4"/>
       <color rgb="FF8732E9"/>
-      <color rgb="FF9437FF"/>
-      <color rgb="FFED8D2E"/>
     </mruColors>
   </colors>
   <extLst>
@@ -189,7 +219,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:defRPr sz="5400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -202,7 +232,7 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:rPr lang="en-US" sz="3600"/>
+              <a:rPr lang="en-US" sz="5400"/>
               <a:t>Reading Tiles of Different Bitrates</a:t>
             </a:r>
           </a:p>
@@ -222,7 +252,7 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+            <a:defRPr sz="5400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="tx1">
                   <a:lumMod val="65000"/>
@@ -275,22 +305,22 @@
               <c:strCache>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>18@50, 0@9000</c:v>
+                  <c:v>18 low</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>17@50, 1@9000</c:v>
+                  <c:v>17 low,_x000d_1 high</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>16@50, 2@9000</c:v>
+                  <c:v>16 low,_x000d_2 high</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>14@50, 4@9000</c:v>
+                  <c:v>14 low, _x000d_4 high</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>6@50, 12@9000</c:v>
+                  <c:v>6 low,_x000d_12 high</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0@50, 18@9000</c:v>
+                  <c:v>18 high</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -353,22 +383,22 @@
               <c:strCache>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>18@50, 0@9000</c:v>
+                  <c:v>18 low</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>17@50, 1@9000</c:v>
+                  <c:v>17 low,_x000d_1 high</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>16@50, 2@9000</c:v>
+                  <c:v>16 low,_x000d_2 high</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>14@50, 4@9000</c:v>
+                  <c:v>14 low, _x000d_4 high</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>6@50, 12@9000</c:v>
+                  <c:v>6 low,_x000d_12 high</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0@50, 18@9000</c:v>
+                  <c:v>18 high</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -431,22 +461,22 @@
               <c:strCache>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>18@50, 0@9000</c:v>
+                  <c:v>18 low</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>17@50, 1@9000</c:v>
+                  <c:v>17 low,_x000d_1 high</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>16@50, 2@9000</c:v>
+                  <c:v>16 low,_x000d_2 high</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>14@50, 4@9000</c:v>
+                  <c:v>14 low, _x000d_4 high</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>6@50, 12@9000</c:v>
+                  <c:v>6 low,_x000d_12 high</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0@50, 18@9000</c:v>
+                  <c:v>18 high</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -509,22 +539,22 @@
               <c:strCache>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>18@50, 0@9000</c:v>
+                  <c:v>18 low</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>17@50, 1@9000</c:v>
+                  <c:v>17 low,_x000d_1 high</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>16@50, 2@9000</c:v>
+                  <c:v>16 low,_x000d_2 high</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>14@50, 4@9000</c:v>
+                  <c:v>14 low, _x000d_4 high</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>6@50, 12@9000</c:v>
+                  <c:v>6 low,_x000d_12 high</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0@50, 18@9000</c:v>
+                  <c:v>18 high</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -587,22 +617,22 @@
               <c:strCache>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>18@50, 0@9000</c:v>
+                  <c:v>18 low</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>17@50, 1@9000</c:v>
+                  <c:v>17 low,_x000d_1 high</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>16@50, 2@9000</c:v>
+                  <c:v>16 low,_x000d_2 high</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>14@50, 4@9000</c:v>
+                  <c:v>14 low, _x000d_4 high</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>6@50, 12@9000</c:v>
+                  <c:v>6 low,_x000d_12 high</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0@50, 18@9000</c:v>
+                  <c:v>18 high</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -665,22 +695,22 @@
               <c:strCache>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>18@50, 0@9000</c:v>
+                  <c:v>18 low</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>17@50, 1@9000</c:v>
+                  <c:v>17 low,_x000d_1 high</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>16@50, 2@9000</c:v>
+                  <c:v>16 low,_x000d_2 high</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>14@50, 4@9000</c:v>
+                  <c:v>14 low, _x000d_4 high</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>6@50, 12@9000</c:v>
+                  <c:v>6 low,_x000d_12 high</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0@50, 18@9000</c:v>
+                  <c:v>18 high</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -743,22 +773,22 @@
               <c:strCache>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>18@50, 0@9000</c:v>
+                  <c:v>18 low</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>17@50, 1@9000</c:v>
+                  <c:v>17 low,_x000d_1 high</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>16@50, 2@9000</c:v>
+                  <c:v>16 low,_x000d_2 high</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>14@50, 4@9000</c:v>
+                  <c:v>14 low, _x000d_4 high</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>6@50, 12@9000</c:v>
+                  <c:v>6 low,_x000d_12 high</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0@50, 18@9000</c:v>
+                  <c:v>18 high</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -817,7 +847,7 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr sz="3600" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
                       <a:schemeClr val="tx1">
                         <a:lumMod val="65000"/>
@@ -830,7 +860,7 @@
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="en-US" sz="2400"/>
+                  <a:rPr lang="en-US" sz="3600"/>
                   <a:t>Bitrates of Files Read</a:t>
                 </a:r>
               </a:p>
@@ -850,7 +880,7 @@
             <a:lstStyle/>
             <a:p>
               <a:pPr>
-                <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:defRPr sz="3600" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                   <a:solidFill>
                     <a:schemeClr val="tx1">
                       <a:lumMod val="65000"/>
@@ -888,7 +918,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="3600" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -952,7 +982,7 @@
                   <a:buFontTx/>
                   <a:buNone/>
                   <a:tabLst/>
-                  <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr sz="3600" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
                       <a:sysClr val="windowText" lastClr="000000">
                         <a:lumMod val="65000"/>
@@ -965,7 +995,7 @@
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="en-US" sz="2400" b="0" i="0" kern="1200" baseline="0">
+                  <a:rPr lang="en-US" sz="3600" b="0" i="0" kern="1200" baseline="0">
                     <a:solidFill>
                       <a:srgbClr val="595959"/>
                     </a:solidFill>
@@ -973,20 +1003,13 @@
                   </a:rPr>
                   <a:t>Time (seconds)</a:t>
                 </a:r>
-                <a:endParaRPr lang="en-US" sz="2400">
+                <a:endParaRPr lang="en-US" sz="3600">
                   <a:effectLst/>
                 </a:endParaRPr>
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout>
-            <c:manualLayout>
-              <c:xMode val="edge"/>
-              <c:yMode val="edge"/>
-              <c:x val="0.00734094616639478"/>
-              <c:y val="0.35245238017447"/>
-            </c:manualLayout>
-          </c:layout>
+          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -1014,7 +1037,7 @@
                 <a:buFontTx/>
                 <a:buNone/>
                 <a:tabLst/>
-                <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:defRPr sz="3600" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                   <a:solidFill>
                     <a:sysClr val="windowText" lastClr="000000">
                       <a:lumMod val="65000"/>
@@ -1046,7 +1069,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="2400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="3600" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -1089,7 +1112,7 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="2400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+            <a:defRPr sz="2600" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="tx1">
                   <a:lumMod val="65000"/>
@@ -1163,7 +1186,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:defRPr sz="5400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -1176,7 +1199,7 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:rPr lang="en-US" sz="3600"/>
+              <a:rPr lang="en-US" sz="5400"/>
               <a:t>Reading Tiles of Different Bitrates</a:t>
             </a:r>
           </a:p>
@@ -1196,7 +1219,7 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+            <a:defRPr sz="5400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="tx1">
                   <a:lumMod val="65000"/>
@@ -1249,22 +1272,22 @@
               <c:strCache>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>18@50, 0@9000</c:v>
+                  <c:v>18 low</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>17@50, 1@9000</c:v>
+                  <c:v>17 low,_x000d_1 high</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>16@50, 2@9000</c:v>
+                  <c:v>16 low,_x000d_2 high</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>14@50, 4@9000</c:v>
+                  <c:v>14 low, _x000d_4 high</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>6@50, 12@9000</c:v>
+                  <c:v>6 low,_x000d_12 high</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0@50, 18@9000</c:v>
+                  <c:v>18 high</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1327,22 +1350,22 @@
               <c:strCache>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>18@50, 0@9000</c:v>
+                  <c:v>18 low</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>17@50, 1@9000</c:v>
+                  <c:v>17 low,_x000d_1 high</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>16@50, 2@9000</c:v>
+                  <c:v>16 low,_x000d_2 high</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>14@50, 4@9000</c:v>
+                  <c:v>14 low, _x000d_4 high</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>6@50, 12@9000</c:v>
+                  <c:v>6 low,_x000d_12 high</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0@50, 18@9000</c:v>
+                  <c:v>18 high</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1405,22 +1428,22 @@
               <c:strCache>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>18@50, 0@9000</c:v>
+                  <c:v>18 low</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>17@50, 1@9000</c:v>
+                  <c:v>17 low,_x000d_1 high</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>16@50, 2@9000</c:v>
+                  <c:v>16 low,_x000d_2 high</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>14@50, 4@9000</c:v>
+                  <c:v>14 low, _x000d_4 high</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>6@50, 12@9000</c:v>
+                  <c:v>6 low,_x000d_12 high</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0@50, 18@9000</c:v>
+                  <c:v>18 high</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1483,22 +1506,22 @@
               <c:strCache>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>18@50, 0@9000</c:v>
+                  <c:v>18 low</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>17@50, 1@9000</c:v>
+                  <c:v>17 low,_x000d_1 high</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>16@50, 2@9000</c:v>
+                  <c:v>16 low,_x000d_2 high</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>14@50, 4@9000</c:v>
+                  <c:v>14 low, _x000d_4 high</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>6@50, 12@9000</c:v>
+                  <c:v>6 low,_x000d_12 high</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0@50, 18@9000</c:v>
+                  <c:v>18 high</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1561,22 +1584,22 @@
               <c:strCache>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>18@50, 0@9000</c:v>
+                  <c:v>18 low</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>17@50, 1@9000</c:v>
+                  <c:v>17 low,_x000d_1 high</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>16@50, 2@9000</c:v>
+                  <c:v>16 low,_x000d_2 high</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>14@50, 4@9000</c:v>
+                  <c:v>14 low, _x000d_4 high</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>6@50, 12@9000</c:v>
+                  <c:v>6 low,_x000d_12 high</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0@50, 18@9000</c:v>
+                  <c:v>18 high</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1618,11 +1641,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="-1803268944"/>
-        <c:axId val="-1746327680"/>
+        <c:axId val="-1631553936"/>
+        <c:axId val="-1713496352"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-1803268944"/>
+        <c:axId val="-1631553936"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1635,7 +1658,7 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr sz="3600" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
                       <a:schemeClr val="tx1">
                         <a:lumMod val="65000"/>
@@ -1648,20 +1671,13 @@
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="en-US" sz="2400"/>
+                  <a:rPr lang="en-US" sz="3600"/>
                   <a:t>Bitrates of Files Read</a:t>
                 </a:r>
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout>
-            <c:manualLayout>
-              <c:xMode val="edge"/>
-              <c:yMode val="edge"/>
-              <c:x val="0.368720889905075"/>
-              <c:y val="0.914325644460418"/>
-            </c:manualLayout>
-          </c:layout>
+          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -1675,7 +1691,7 @@
             <a:lstStyle/>
             <a:p>
               <a:pPr>
-                <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:defRPr sz="3600" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                   <a:solidFill>
                     <a:schemeClr val="tx1">
                       <a:lumMod val="65000"/>
@@ -1713,7 +1729,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="3600" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -1728,7 +1744,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1746327680"/>
+        <c:crossAx val="-1713496352"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1736,7 +1752,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-1746327680"/>
+        <c:axId val="-1713496352"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1777,7 +1793,7 @@
                   <a:buFontTx/>
                   <a:buNone/>
                   <a:tabLst/>
-                  <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr sz="3600" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
                       <a:sysClr val="windowText" lastClr="000000">
                         <a:lumMod val="65000"/>
@@ -1790,7 +1806,7 @@
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="en-US" sz="2400" b="0" i="0" kern="1200" baseline="0">
+                  <a:rPr lang="en-US" sz="3600" b="0" i="0" kern="1200" baseline="0">
                     <a:solidFill>
                       <a:srgbClr val="595959"/>
                     </a:solidFill>
@@ -1798,20 +1814,13 @@
                   </a:rPr>
                   <a:t>Time (seconds)</a:t>
                 </a:r>
-                <a:endParaRPr lang="en-US" sz="2400">
+                <a:endParaRPr lang="en-US" sz="3600">
                   <a:effectLst/>
                 </a:endParaRPr>
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout>
-            <c:manualLayout>
-              <c:xMode val="edge"/>
-              <c:yMode val="edge"/>
-              <c:x val="0.00734094616639478"/>
-              <c:y val="0.35452706897115"/>
-            </c:manualLayout>
-          </c:layout>
+          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -1839,7 +1848,7 @@
                 <a:buFontTx/>
                 <a:buNone/>
                 <a:tabLst/>
-                <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:defRPr sz="3600" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                   <a:solidFill>
                     <a:sysClr val="windowText" lastClr="000000">
                       <a:lumMod val="65000"/>
@@ -1871,7 +1880,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="2400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="3600" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -1886,7 +1895,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1803268944"/>
+        <c:crossAx val="-1631553936"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1914,7 +1923,7 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="2400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+            <a:defRPr sz="2600" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="tx1">
                   <a:lumMod val="65000"/>
@@ -1988,7 +1997,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="3600" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:defRPr sz="5400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -2001,12 +2010,12 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:rPr lang="en-US" sz="3600" b="0" i="0" baseline="0">
+              <a:rPr lang="en-US" sz="5400" b="0" i="0" baseline="0">
                 <a:effectLst/>
               </a:rPr>
               <a:t>Writing Tiles of Different Bitrates</a:t>
             </a:r>
-            <a:endParaRPr lang="en-US" sz="3600">
+            <a:endParaRPr lang="en-US" sz="5400">
               <a:effectLst/>
             </a:endParaRPr>
           </a:p>
@@ -2026,7 +2035,7 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="3600" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+            <a:defRPr sz="5400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="tx1">
                   <a:lumMod val="65000"/>
@@ -2054,18 +2063,18 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Writing Files'!$C$1</c:f>
+              <c:f>'Writing Files'!$B$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>FS</c:v>
+                  <c:v>TileDB</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
           <c:spPr>
             <a:solidFill>
-              <a:srgbClr val="00B0F0"/>
+              <a:srgbClr val="FF0000"/>
             </a:solidFill>
             <a:ln>
               <a:noFill/>
@@ -2079,16 +2088,82 @@
               <c:strCache>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>1 @ 50kbps</c:v>
+                  <c:v>1 low</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>18 @ 50kbps</c:v>
+                  <c:v>18 low</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1 @ 9000 kbps</c:v>
+                  <c:v>1 high</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>18 @ 9000 kbps</c:v>
+                  <c:v>18 high</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Writing Files'!$B$2:$B$5</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>0.0012</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.015</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.05</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.9</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Writing Files'!$C$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>TileDB Overflow</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="ED8D2E"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Writing Files'!$A$2:$A$5</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>1 low</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>18 low</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1 high</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>18 high</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2100,31 +2175,31 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>0.0003413923611</c:v>
+                  <c:v>0.0009</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.005830125</c:v>
+                  <c:v>0.016</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.01476695833</c:v>
+                  <c:v>0.03</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.214270375</c:v>
+                  <c:v>0.26</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
         </c:ser>
         <c:ser>
-          <c:idx val="3"/>
-          <c:order val="1"/>
+          <c:idx val="2"/>
+          <c:order val="2"/>
           <c:tx>
             <c:strRef>
               <c:f>'Writing Files'!$D$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>TileDB_Fake</c:v>
+                  <c:v>FS</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2145,16 +2220,16 @@
               <c:strCache>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>1 @ 50kbps</c:v>
+                  <c:v>1 low</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>18 @ 50kbps</c:v>
+                  <c:v>18 low</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1 @ 9000 kbps</c:v>
+                  <c:v>1 high</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>18 @ 9000 kbps</c:v>
+                  <c:v>18 high</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2166,38 +2241,38 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>3.413923611E-5</c:v>
+                  <c:v>0.0003413923611</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.0005830125</c:v>
+                  <c:v>0.005830125</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.001476695833</c:v>
+                  <c:v>0.01476695833</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.0214270375</c:v>
+                  <c:v>0.214270375</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
         </c:ser>
         <c:ser>
-          <c:idx val="2"/>
-          <c:order val="2"/>
+          <c:idx val="0"/>
+          <c:order val="3"/>
           <c:tx>
             <c:strRef>
               <c:f>'Writing Files'!$E$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>SciDB_Fake</c:v>
+                  <c:v>SciDB</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
           <c:spPr>
             <a:solidFill>
-              <a:srgbClr val="8732E9"/>
+              <a:srgbClr val="9437FF"/>
             </a:solidFill>
             <a:ln>
               <a:noFill/>
@@ -2211,16 +2286,16 @@
               <c:strCache>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>1 @ 50kbps</c:v>
+                  <c:v>1 low</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>18 @ 50kbps</c:v>
+                  <c:v>18 low</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1 @ 9000 kbps</c:v>
+                  <c:v>1 high</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>18 @ 9000 kbps</c:v>
+                  <c:v>18 high</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2232,16 +2307,16 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>0.03413923611</c:v>
+                  <c:v>0.12</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.5830125</c:v>
+                  <c:v>2.1</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.476695833</c:v>
+                  <c:v>3.1</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>21.4270375</c:v>
+                  <c:v>55.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2273,7 +2348,7 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr sz="3600" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
                       <a:schemeClr val="tx1">
                         <a:lumMod val="65000"/>
@@ -2286,20 +2361,13 @@
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="en-US" sz="2400"/>
-                  <a:t>Number and Bitrates of Files Read</a:t>
+                  <a:rPr lang="en-US" sz="3600"/>
+                  <a:t>Number and Bitrates of Files Written</a:t>
                 </a:r>
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout>
-            <c:manualLayout>
-              <c:xMode val="edge"/>
-              <c:yMode val="edge"/>
-              <c:x val="0.329216261355469"/>
-              <c:y val="0.916344794531476"/>
-            </c:manualLayout>
-          </c:layout>
+          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -2313,7 +2381,7 @@
             <a:lstStyle/>
             <a:p>
               <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:defRPr sz="3600" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                   <a:solidFill>
                     <a:schemeClr val="tx1">
                       <a:lumMod val="65000"/>
@@ -2351,7 +2419,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="3600" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -2417,7 +2485,7 @@
                   <a:buFontTx/>
                   <a:buNone/>
                   <a:tabLst/>
-                  <a:defRPr sz="2400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr sz="3600" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
                       <a:sysClr val="windowText" lastClr="000000">
                         <a:lumMod val="65000"/>
@@ -2430,7 +2498,7 @@
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="en-US" sz="2400" b="0" i="0" kern="1200" baseline="0">
+                  <a:rPr lang="en-US" sz="3600" b="0" i="0" kern="1200" baseline="0">
                     <a:solidFill>
                       <a:srgbClr val="595959"/>
                     </a:solidFill>
@@ -2438,20 +2506,13 @@
                   </a:rPr>
                   <a:t>Time (seconds)</a:t>
                 </a:r>
-                <a:endParaRPr lang="en-US" sz="2400">
+                <a:endParaRPr lang="en-US" sz="3600">
                   <a:effectLst/>
                 </a:endParaRPr>
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout>
-            <c:manualLayout>
-              <c:xMode val="edge"/>
-              <c:yMode val="edge"/>
-              <c:x val="0.00570887975468128"/>
-              <c:y val="0.352354521641446"/>
-            </c:manualLayout>
-          </c:layout>
+          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -2479,7 +2540,7 @@
                 <a:buFontTx/>
                 <a:buNone/>
                 <a:tabLst/>
-                <a:defRPr sz="2400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:defRPr sz="3600" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                   <a:solidFill>
                     <a:sysClr val="windowText" lastClr="000000">
                       <a:lumMod val="65000"/>
@@ -2510,7 +2571,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="2400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="3600" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -2627,7 +2688,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="3600" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:defRPr sz="5400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -2640,12 +2701,12 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:rPr lang="en-US" sz="3600" b="0" i="0" baseline="0">
+              <a:rPr lang="en-US" sz="5400" b="0" i="0" baseline="0">
                 <a:effectLst/>
               </a:rPr>
               <a:t>Writing Tiles of Different Bitrates</a:t>
             </a:r>
-            <a:endParaRPr lang="en-US" sz="3600">
+            <a:endParaRPr lang="en-US" sz="5400">
               <a:effectLst/>
             </a:endParaRPr>
           </a:p>
@@ -2665,7 +2726,7 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="3600" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+            <a:defRPr sz="5400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="tx1">
                   <a:lumMod val="65000"/>
@@ -2693,18 +2754,18 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Writing Files'!$C$1</c:f>
+              <c:f>'Writing Files'!$B$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>FS</c:v>
+                  <c:v>TileDB</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
           <c:spPr>
             <a:solidFill>
-              <a:srgbClr val="00B0F0"/>
+              <a:srgbClr val="FF0000"/>
             </a:solidFill>
             <a:ln>
               <a:noFill/>
@@ -2718,16 +2779,82 @@
               <c:strCache>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>1 @ 50kbps</c:v>
+                  <c:v>1 low</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>18 @ 50kbps</c:v>
+                  <c:v>18 low</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1 @ 9000 kbps</c:v>
+                  <c:v>1 high</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>18 @ 9000 kbps</c:v>
+                  <c:v>18 high</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Writing Files'!$B$2:$B$5</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>0.0012</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.015</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.05</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.9</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Writing Files'!$C$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>TileDB Overflow</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="ED8D2E"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Writing Files'!$A$2:$A$5</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>1 low</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>18 low</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1 high</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>18 high</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2739,31 +2866,31 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>0.0003413923611</c:v>
+                  <c:v>0.0009</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.005830125</c:v>
+                  <c:v>0.016</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.01476695833</c:v>
+                  <c:v>0.03</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.214270375</c:v>
+                  <c:v>0.26</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
         </c:ser>
         <c:ser>
-          <c:idx val="3"/>
-          <c:order val="1"/>
+          <c:idx val="2"/>
+          <c:order val="2"/>
           <c:tx>
             <c:strRef>
               <c:f>'Writing Files'!$D$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>TileDB_Fake</c:v>
+                  <c:v>FS</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2784,16 +2911,16 @@
               <c:strCache>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>1 @ 50kbps</c:v>
+                  <c:v>1 low</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>18 @ 50kbps</c:v>
+                  <c:v>18 low</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1 @ 9000 kbps</c:v>
+                  <c:v>1 high</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>18 @ 9000 kbps</c:v>
+                  <c:v>18 high</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2805,16 +2932,16 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>3.413923611E-5</c:v>
+                  <c:v>0.0003413923611</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.0005830125</c:v>
+                  <c:v>0.005830125</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.001476695833</c:v>
+                  <c:v>0.01476695833</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.0214270375</c:v>
+                  <c:v>0.214270375</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2829,11 +2956,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="-1749233936"/>
-        <c:axId val="-1746123856"/>
+        <c:axId val="-1711797360"/>
+        <c:axId val="-1717020224"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-1749233936"/>
+        <c:axId val="-1711797360"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2846,7 +2973,7 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr sz="3600" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
                       <a:schemeClr val="tx1">
                         <a:lumMod val="65000"/>
@@ -2859,20 +2986,13 @@
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="en-US" sz="2400"/>
-                  <a:t>Number and Bitrates of Files Read</a:t>
+                  <a:rPr lang="en-US" sz="3600"/>
+                  <a:t>Number and Bitrates of Files Written</a:t>
                 </a:r>
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout>
-            <c:manualLayout>
-              <c:xMode val="edge"/>
-              <c:yMode val="edge"/>
-              <c:x val="0.329216261355469"/>
-              <c:y val="0.916344794531476"/>
-            </c:manualLayout>
-          </c:layout>
+          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -2886,7 +3006,7 @@
             <a:lstStyle/>
             <a:p>
               <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:defRPr sz="3600" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                   <a:solidFill>
                     <a:schemeClr val="tx1">
                       <a:lumMod val="65000"/>
@@ -2924,7 +3044,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="3600" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -2939,7 +3059,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1746123856"/>
+        <c:crossAx val="-1717020224"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2947,10 +3067,10 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-1746123856"/>
+        <c:axId val="-1717020224"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:max val="0.25"/>
+          <c:max val="0.95"/>
           <c:min val="0.0"/>
         </c:scaling>
         <c:delete val="0"/>
@@ -2990,7 +3110,7 @@
                   <a:buFontTx/>
                   <a:buNone/>
                   <a:tabLst/>
-                  <a:defRPr sz="2400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr sz="3600" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
                       <a:sysClr val="windowText" lastClr="000000">
                         <a:lumMod val="65000"/>
@@ -3003,7 +3123,7 @@
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="en-US" sz="2400" b="0" i="0" kern="1200" baseline="0">
+                  <a:rPr lang="en-US" sz="3600" b="0" i="0" kern="1200" baseline="0">
                     <a:solidFill>
                       <a:srgbClr val="595959"/>
                     </a:solidFill>
@@ -3011,20 +3131,13 @@
                   </a:rPr>
                   <a:t>Time (seconds)</a:t>
                 </a:r>
-                <a:endParaRPr lang="en-US" sz="2400">
+                <a:endParaRPr lang="en-US" sz="3600">
                   <a:effectLst/>
                 </a:endParaRPr>
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout>
-            <c:manualLayout>
-              <c:xMode val="edge"/>
-              <c:yMode val="edge"/>
-              <c:x val="0.00570887975468128"/>
-              <c:y val="0.352354521641446"/>
-            </c:manualLayout>
-          </c:layout>
+          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -3052,7 +3165,7 @@
                 <a:buFontTx/>
                 <a:buNone/>
                 <a:tabLst/>
-                <a:defRPr sz="2400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:defRPr sz="3600" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                   <a:solidFill>
                     <a:sysClr val="windowText" lastClr="000000">
                       <a:lumMod val="65000"/>
@@ -3068,7 +3181,6 @@
             </a:p>
           </c:txPr>
         </c:title>
-        <c:numFmt formatCode="General" sourceLinked="0"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -3084,7 +3196,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="2400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="3600" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -3099,7 +3211,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1749233936"/>
+        <c:crossAx val="-1711797360"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3201,7 +3313,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:defRPr sz="5400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -3214,8 +3326,8 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:rPr lang="en-US" sz="3600"/>
-              <a:t>Throughput of 9mbps Tiles</a:t>
+              <a:rPr lang="en-US" sz="5400"/>
+              <a:t>Throughput of High Quality Tiles</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -3234,7 +3346,7 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+            <a:defRPr sz="5400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="tx1">
                   <a:lumMod val="65000"/>
@@ -3271,7 +3383,35 @@
           </c:spPr>
           <c:invertIfNegative val="0"/>
           <c:dPt>
+            <c:idx val="0"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
             <c:idx val="1"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="ED8D2E"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="3"/>
             <c:invertIfNegative val="0"/>
             <c:bubble3D val="0"/>
             <c:spPr>
@@ -3285,7 +3425,7 @@
             </c:spPr>
           </c:dPt>
           <c:dPt>
-            <c:idx val="2"/>
+            <c:idx val="4"/>
             <c:invertIfNegative val="0"/>
             <c:bubble3D val="0"/>
             <c:spPr>
@@ -3298,37 +3438,140 @@
               <a:effectLst/>
             </c:spPr>
           </c:dPt>
+          <c:dPt>
+            <c:idx val="5"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="9437FF"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:dLbls>
+            <c:dLbl>
+              <c:idx val="5"/>
+              <c:layout/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="1"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>Throughput!$B$5:$D$5</c:f>
+              <c:f>Throughput!$B$5:$G$5</c:f>
               <c:strCache>
-                <c:ptCount val="3"/>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>FS Separate</c:v>
+                  <c:v>TileDB</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>FS Combined</c:v>
+                  <c:v>TileDB_x000d_Overflow</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>FS Padded</c:v>
+                  <c:v>FS_x000d_Separate</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>FS_x000d_Combined</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>FS_x000d_Padded</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>SciDB</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Throughput!$B$6:$D$6</c:f>
+              <c:f>Throughput!$B$6:$G$6</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="3"/>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
+                  <c:v>301.4492753623188</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>295.4545454545454</c:v>
+                </c:pt>
+                <c:pt idx="2">
                   <c:v>331.9181068667792</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="3">
                   <c:v>271.7603617130414</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="4">
                   <c:v>136.7890994871067</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2.997502081598668</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3375,7 +3618,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="2400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="3600" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -3425,7 +3668,7 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="2400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr sz="3600" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
                       <a:schemeClr val="tx1">
                         <a:lumMod val="65000"/>
@@ -3438,25 +3681,18 @@
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="en-US" sz="2400"/>
+                  <a:rPr lang="en-US" sz="3600"/>
                   <a:t>Throughput</a:t>
                 </a:r>
                 <a:r>
-                  <a:rPr lang="en-US" sz="2400" baseline="0"/>
+                  <a:rPr lang="en-US" sz="3600" baseline="0"/>
                   <a:t> (tiles/second)</a:t>
                 </a:r>
-                <a:endParaRPr lang="en-US" sz="2400"/>
+                <a:endParaRPr lang="en-US" sz="3600"/>
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout>
-            <c:manualLayout>
-              <c:xMode val="edge"/>
-              <c:yMode val="edge"/>
-              <c:x val="0.00652443400535003"/>
-              <c:y val="0.252962727566379"/>
-            </c:manualLayout>
-          </c:layout>
+          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -3470,7 +3706,7 @@
             <a:lstStyle/>
             <a:p>
               <a:pPr>
-                <a:defRPr sz="2400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:defRPr sz="3600" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                   <a:solidFill>
                     <a:schemeClr val="tx1">
                       <a:lumMod val="65000"/>
@@ -3486,7 +3722,7 @@
             </a:p>
           </c:txPr>
         </c:title>
-        <c:majorTickMark val="out"/>
+        <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
@@ -3501,7 +3737,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="2400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="3600" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -3560,7 +3796,7 @@
   <c:printSettings>
     <c:headerFooter/>
     <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
+    <c:pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
   </c:printSettings>
 </c:chartSpace>
 </file>
@@ -6287,19 +6523,19 @@
       <xdr:col>0</xdr:col>
       <xdr:colOff>165100</xdr:colOff>
       <xdr:row>9</xdr:row>
-      <xdr:rowOff>139700</xdr:rowOff>
+      <xdr:rowOff>165100</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>431800</xdr:colOff>
-      <xdr:row>39</xdr:row>
-      <xdr:rowOff>165100</xdr:rowOff>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>778764</xdr:colOff>
+      <xdr:row>56</xdr:row>
+      <xdr:rowOff>115316</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Chart 1"/>
         <xdr:cNvGraphicFramePr>
-          <a:graphicFrameLocks noChangeAspect="1"/>
+          <a:graphicFrameLocks/>
         </xdr:cNvGraphicFramePr>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -6316,22 +6552,22 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>5</xdr:col>
+      <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>49</xdr:row>
+      <xdr:row>70</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>23</xdr:col>
-      <xdr:colOff>711200</xdr:colOff>
-      <xdr:row>79</xdr:row>
-      <xdr:rowOff>25400</xdr:rowOff>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>613664</xdr:colOff>
+      <xdr:row>116</xdr:row>
+      <xdr:rowOff>153416</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="4" name="Chart 3"/>
+        <xdr:cNvPr id="7" name="Chart 6"/>
         <xdr:cNvGraphicFramePr>
-          <a:graphicFrameLocks noChangeAspect="1"/>
+          <a:graphicFrameLocks/>
         </xdr:cNvGraphicFramePr>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -6360,9 +6596,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
-      <xdr:colOff>192531</xdr:colOff>
-      <xdr:row>39</xdr:row>
-      <xdr:rowOff>8636</xdr:rowOff>
+      <xdr:colOff>308863</xdr:colOff>
+      <xdr:row>55</xdr:row>
+      <xdr:rowOff>140716</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -6385,20 +6621,20 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>2</xdr:col>
+      <xdr:col>21</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>53</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>33867</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>20</xdr:col>
-      <xdr:colOff>713232</xdr:colOff>
-      <xdr:row>83</xdr:row>
-      <xdr:rowOff>21336</xdr:rowOff>
+      <xdr:col>41</xdr:col>
+      <xdr:colOff>202861</xdr:colOff>
+      <xdr:row>94</xdr:row>
+      <xdr:rowOff>187283</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="5" name="Chart 4"/>
+        <xdr:cNvPr id="7" name="Chart 6"/>
         <xdr:cNvGraphicFramePr>
           <a:graphicFrameLocks/>
         </xdr:cNvGraphicFramePr>
@@ -6425,19 +6661,19 @@
       <xdr:col>0</xdr:col>
       <xdr:colOff>273050</xdr:colOff>
       <xdr:row>8</xdr:row>
-      <xdr:rowOff>25400</xdr:rowOff>
+      <xdr:rowOff>50800</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>160782</xdr:colOff>
-      <xdr:row>38</xdr:row>
-      <xdr:rowOff>46736</xdr:rowOff>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>734314</xdr:colOff>
+      <xdr:row>55</xdr:row>
+      <xdr:rowOff>1489</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Chart 1"/>
         <xdr:cNvGraphicFramePr>
-          <a:graphicFrameLocks noChangeAspect="1"/>
+          <a:graphicFrameLocks/>
         </xdr:cNvGraphicFramePr>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -6720,8 +6956,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H7"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A65" workbookViewId="0">
-      <selection activeCell="D76" sqref="D76"/>
+    <sheetView tabSelected="1" topLeftCell="A66" zoomScale="50" zoomScaleNormal="50" workbookViewId="0">
+      <selection activeCell="A71" sqref="A71"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -6754,8 +6990,8 @@
       </c>
     </row>
     <row r="2" spans="1:8" ht="17" x14ac:dyDescent="0.2">
-      <c r="A2" s="1" t="s">
-        <v>14</v>
+      <c r="A2" s="3" t="s">
+        <v>11</v>
       </c>
       <c r="B2" s="1">
         <v>0.03</v>
@@ -6779,9 +7015,9 @@
         <v>1.9</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="17" x14ac:dyDescent="0.2">
-      <c r="A3" s="1" t="s">
-        <v>15</v>
+    <row r="3" spans="1:8" ht="34" x14ac:dyDescent="0.2">
+      <c r="A3" s="4" t="s">
+        <v>14</v>
       </c>
       <c r="B3" s="1">
         <v>0.15</v>
@@ -6805,9 +7041,9 @@
         <v>2.7</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="17" x14ac:dyDescent="0.2">
-      <c r="A4" s="1" t="s">
-        <v>16</v>
+    <row r="4" spans="1:8" ht="34" x14ac:dyDescent="0.2">
+      <c r="A4" s="5" t="s">
+        <v>15</v>
       </c>
       <c r="B4" s="1">
         <v>0.19</v>
@@ -6831,9 +7067,9 @@
         <v>3.2</v>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="17" x14ac:dyDescent="0.2">
-      <c r="A5" s="1" t="s">
-        <v>17</v>
+    <row r="5" spans="1:8" ht="34" x14ac:dyDescent="0.2">
+      <c r="A5" s="5" t="s">
+        <v>16</v>
       </c>
       <c r="B5" s="1">
         <v>0.45</v>
@@ -6857,9 +7093,9 @@
         <v>4.5</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="17" x14ac:dyDescent="0.2">
-      <c r="A6" s="1" t="s">
-        <v>18</v>
+    <row r="6" spans="1:8" ht="34" x14ac:dyDescent="0.2">
+      <c r="A6" s="4" t="s">
+        <v>17</v>
       </c>
       <c r="B6" s="1">
         <v>0.72</v>
@@ -6884,8 +7120,8 @@
       </c>
     </row>
     <row r="7" spans="1:8" ht="17" x14ac:dyDescent="0.2">
-      <c r="A7" s="1" t="s">
-        <v>19</v>
+      <c r="A7" s="3" t="s">
+        <v>13</v>
       </c>
       <c r="B7" s="1">
         <v>1.42</v>
@@ -6919,83 +7155,99 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E5"/>
   <sheetViews>
-    <sheetView topLeftCell="B4" workbookViewId="0">
-      <selection activeCell="C54" sqref="C54"/>
+    <sheetView topLeftCell="A9" zoomScale="50" zoomScaleNormal="50" workbookViewId="0">
+      <selection activeCell="V49" sqref="V49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="2" width="12.1640625" customWidth="1"/>
+    <col min="3" max="3" width="16.5" customWidth="1"/>
+    <col min="4" max="4" width="14.5" customWidth="1"/>
+    <col min="5" max="5" width="14" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A1" s="1"/>
-      <c r="B1" s="1"/>
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
       <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>9</v>
-      </c>
       <c r="E1" s="1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B2" s="1"/>
+      <c r="B2" s="1">
+        <v>1.1999999999999999E-3</v>
+      </c>
       <c r="C2" s="1">
+        <v>8.9999999999999998E-4</v>
+      </c>
+      <c r="D2" s="1">
         <v>3.4139236109999999E-4</v>
       </c>
-      <c r="D2" s="1">
-        <v>3.413923611E-5</v>
-      </c>
       <c r="E2" s="1">
-        <v>3.4139236109999999E-2</v>
+        <v>0.12</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B3" s="1"/>
+      <c r="B3" s="1">
+        <v>1.4999999999999999E-2</v>
+      </c>
       <c r="C3" s="1">
+        <v>1.6E-2</v>
+      </c>
+      <c r="D3" s="1">
         <v>5.8301250000000002E-3</v>
       </c>
-      <c r="D3" s="1">
-        <v>5.830125E-4</v>
-      </c>
       <c r="E3" s="1">
-        <v>0.58301250000000004</v>
+        <v>2.1</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B4" s="1"/>
+      <c r="B4" s="1">
+        <v>0.05</v>
+      </c>
       <c r="C4" s="1">
+        <v>0.03</v>
+      </c>
+      <c r="D4" s="1">
         <v>1.476695833E-2</v>
       </c>
-      <c r="D4" s="1">
-        <v>1.476695833E-3</v>
-      </c>
       <c r="E4" s="1">
-        <v>1.476695833</v>
+        <v>3.1</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B5" s="1"/>
+      <c r="B5" s="1">
+        <v>0.9</v>
+      </c>
       <c r="C5" s="1">
+        <v>0.26</v>
+      </c>
+      <c r="D5" s="1">
         <v>0.21427037500000001</v>
       </c>
-      <c r="D5" s="1">
-        <v>2.1427037499999999E-2</v>
-      </c>
       <c r="E5" s="1">
-        <v>21.427037500000001</v>
+        <v>55</v>
       </c>
     </row>
   </sheetData>
@@ -7006,69 +7258,109 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:G6"/>
   <sheetViews>
-    <sheetView topLeftCell="A12" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5:D6"/>
+    <sheetView topLeftCell="A33" workbookViewId="0">
+      <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+      <c r="A2" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B2" s="1">
+        <v>3.45</v>
+      </c>
+      <c r="C2" s="1">
+        <v>3.52</v>
+      </c>
+      <c r="D2" s="1">
+        <v>3.1333030000000002</v>
+      </c>
+      <c r="E2" s="1">
+        <v>3.8269009999999999</v>
+      </c>
+      <c r="F2" s="1">
+        <v>7.6029450000000001</v>
+      </c>
+      <c r="G2" s="1">
+        <v>12.01</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="34" x14ac:dyDescent="0.2">
+      <c r="B5" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C5" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="D5" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="E5" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>5</v>
+      <c r="F5" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A2" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="B2" s="1">
-        <v>3.1333030000000002</v>
-      </c>
-      <c r="C2" s="1">
-        <v>3.8269009999999999</v>
-      </c>
-      <c r="D2" s="1">
-        <v>7.6029450000000001</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B5" t="s">
-        <v>2</v>
-      </c>
-      <c r="C5" t="s">
-        <v>3</v>
-      </c>
-      <c r="D5" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B6">
         <f>1040/B2</f>
-        <v>331.91810686677923</v>
+        <v>301.44927536231882</v>
       </c>
       <c r="C6">
         <f>1040/C2</f>
-        <v>271.76036171304145</v>
+        <v>295.45454545454544</v>
       </c>
       <c r="D6">
         <f>1040/D2</f>
+        <v>331.91810686677923</v>
+      </c>
+      <c r="E6">
+        <f>1040/E2</f>
+        <v>271.76036171304145</v>
+      </c>
+      <c r="F6">
+        <f>1040/F2</f>
         <v>136.78909948710665</v>
+      </c>
+      <c r="G6">
+        <f>36/G2</f>
+        <v>2.9975020815986677</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
   <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/images/graphs.xlsx
+++ b/images/graphs.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14180" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14180" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Reading Files (320 secs)" sheetId="1" r:id="rId1"/>
@@ -2445,7 +2445,7 @@
         <c:axId val="-1798775648"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:max val="20.0"/>
+          <c:max val="60.0"/>
           <c:min val="0.0"/>
         </c:scaling>
         <c:delete val="0"/>
@@ -3452,77 +3452,6 @@
               <a:effectLst/>
             </c:spPr>
           </c:dPt>
-          <c:dLbls>
-            <c:dLbl>
-              <c:idx val="5"/>
-              <c:layout/>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="1"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="1"/>
-              <c:showPercent val="0"/>
-              <c:showBubbleSize val="0"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                </c:ext>
-              </c:extLst>
-            </c:dLbl>
-            <c:spPr>
-              <a:noFill/>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:txPr>
-              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
-                <a:spAutoFit/>
-              </a:bodyPr>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="75000"/>
-                        <a:lumOff val="25000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:endParaRPr lang="en-US"/>
-              </a:p>
-            </c:txPr>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="0"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-            <c:showBubbleSize val="0"/>
-            <c:extLst>
-              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:showLeaderLines val="1"/>
-                <c15:leaderLines>
-                  <c:spPr>
-                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-                      <a:solidFill>
-                        <a:schemeClr val="tx1">
-                          <a:lumMod val="35000"/>
-                          <a:lumOff val="65000"/>
-                        </a:schemeClr>
-                      </a:solidFill>
-                      <a:round/>
-                    </a:ln>
-                    <a:effectLst/>
-                  </c:spPr>
-                </c15:leaderLines>
-              </c:ext>
-            </c:extLst>
-          </c:dLbls>
           <c:cat>
             <c:strRef>
               <c:f>Throughput!$B$5:$G$5</c:f>
@@ -6956,7 +6885,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H7"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A66" zoomScale="50" zoomScaleNormal="50" workbookViewId="0">
+    <sheetView topLeftCell="A66" zoomScale="50" zoomScaleNormal="50" workbookViewId="0">
       <selection activeCell="A71" sqref="A71"/>
     </sheetView>
   </sheetViews>
@@ -7155,7 +7084,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E5"/>
   <sheetViews>
-    <sheetView topLeftCell="A9" zoomScale="50" zoomScaleNormal="50" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="E26" zoomScale="50" zoomScaleNormal="50" workbookViewId="0">
       <selection activeCell="V49" sqref="V49"/>
     </sheetView>
   </sheetViews>
@@ -7260,7 +7189,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G6"/>
   <sheetViews>
-    <sheetView topLeftCell="A33" workbookViewId="0">
+    <sheetView topLeftCell="F27" workbookViewId="0">
       <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>

--- a/images/graphs.xlsx
+++ b/images/graphs.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14180" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14180" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Reading Files (320 secs)" sheetId="1" r:id="rId1"/>
@@ -422,10 +422,10 @@
                   <c:v>0.23</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.53</c:v>
+                  <c:v>0.48</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.49</c:v>
+                  <c:v>0.54</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -830,11 +830,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="-1751103264"/>
-        <c:axId val="-1751101488"/>
+        <c:axId val="-913899568"/>
+        <c:axId val="-951239120"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-1751103264"/>
+        <c:axId val="-913899568"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -861,7 +861,7 @@
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="en-US" sz="3600"/>
-                  <a:t>Bitrates of Files Read</a:t>
+                  <a:t>Bitrates of Tiles Read</a:t>
                 </a:r>
               </a:p>
             </c:rich>
@@ -933,7 +933,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1751101488"/>
+        <c:crossAx val="-951239120"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -941,7 +941,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-1751101488"/>
+        <c:axId val="-951239120"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1084,7 +1084,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1751103264"/>
+        <c:crossAx val="-913899568"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1389,10 +1389,10 @@
                   <c:v>0.23</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.53</c:v>
+                  <c:v>0.48</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.49</c:v>
+                  <c:v>0.54</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1641,11 +1641,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="-1631553936"/>
-        <c:axId val="-1713496352"/>
+        <c:axId val="-951209008"/>
+        <c:axId val="-951204976"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-1631553936"/>
+        <c:axId val="-951209008"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1672,7 +1672,7 @@
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="en-US" sz="3600"/>
-                  <a:t>Bitrates of Files Read</a:t>
+                  <a:t>Bitrates of Tiles Read</a:t>
                 </a:r>
               </a:p>
             </c:rich>
@@ -1744,7 +1744,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1713496352"/>
+        <c:crossAx val="-951204976"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1752,7 +1752,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-1713496352"/>
+        <c:axId val="-951204976"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1895,7 +1895,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1631553936"/>
+        <c:crossAx val="-951209008"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2331,11 +2331,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="-1831234304"/>
-        <c:axId val="-1798775648"/>
+        <c:axId val="-950319120"/>
+        <c:axId val="-950313984"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-1831234304"/>
+        <c:axId val="-950319120"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2362,7 +2362,7 @@
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="en-US" sz="3600"/>
-                  <a:t>Number and Bitrates of Files Written</a:t>
+                  <a:t>Number and Bitrates of Tiles Written</a:t>
                 </a:r>
               </a:p>
             </c:rich>
@@ -2434,7 +2434,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1798775648"/>
+        <c:crossAx val="-950313984"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2442,7 +2442,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-1798775648"/>
+        <c:axId val="-950313984"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="60.0"/>
@@ -2586,7 +2586,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1831234304"/>
+        <c:crossAx val="-950319120"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2956,11 +2956,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="-1711797360"/>
-        <c:axId val="-1717020224"/>
+        <c:axId val="-948020048"/>
+        <c:axId val="-948016656"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-1711797360"/>
+        <c:axId val="-948020048"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2987,7 +2987,7 @@
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="en-US" sz="3600"/>
-                  <a:t>Number and Bitrates of Files Written</a:t>
+                  <a:t>Number and Bitrates of Tiles Written</a:t>
                 </a:r>
               </a:p>
             </c:rich>
@@ -3059,7 +3059,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1717020224"/>
+        <c:crossAx val="-948016656"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3067,7 +3067,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-1717020224"/>
+        <c:axId val="-948016656"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="0.95"/>
@@ -3211,7 +3211,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1711797360"/>
+        <c:crossAx val="-948020048"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3515,11 +3515,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="-1745249648"/>
-        <c:axId val="-1718687504"/>
+        <c:axId val="-913881216"/>
+        <c:axId val="-913878896"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-1745249648"/>
+        <c:axId val="-913881216"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3562,7 +3562,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1718687504"/>
+        <c:crossAx val="-913878896"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3570,7 +3570,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-1718687504"/>
+        <c:axId val="-913878896"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3681,7 +3681,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1745249648"/>
+        <c:crossAx val="-913881216"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -6885,8 +6885,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H7"/>
   <sheetViews>
-    <sheetView topLeftCell="A66" zoomScale="50" zoomScaleNormal="50" workbookViewId="0">
-      <selection activeCell="A71" sqref="A71"/>
+    <sheetView tabSelected="1" topLeftCell="A60" zoomScale="50" zoomScaleNormal="50" workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -7030,7 +7030,7 @@
         <v>0.72</v>
       </c>
       <c r="C6" s="1">
-        <v>0.53</v>
+        <v>0.48</v>
       </c>
       <c r="D6" s="1">
         <v>0.67645500000000003</v>
@@ -7056,7 +7056,7 @@
         <v>1.42</v>
       </c>
       <c r="C7" s="1">
-        <v>0.49</v>
+        <v>0.54</v>
       </c>
       <c r="D7" s="2">
         <v>1.1429130000000001</v>
@@ -7084,7 +7084,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E5"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E26" zoomScale="50" zoomScaleNormal="50" workbookViewId="0">
+    <sheetView zoomScale="50" zoomScaleNormal="50" workbookViewId="0">
       <selection activeCell="V49" sqref="V49"/>
     </sheetView>
   </sheetViews>
@@ -7189,7 +7189,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G6"/>
   <sheetViews>
-    <sheetView topLeftCell="F27" workbookViewId="0">
+    <sheetView topLeftCell="A39" workbookViewId="0">
       <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
